--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14165,6 +14165,190 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyzylzhar</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Aktobe</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:57</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:57</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-aktobe/lYlcb3LR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Aksu</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aksu/SI0l0PjF/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Kaisar Kyzylorda</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
         <v>2.66</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>3.13</v>
-      </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:58</t>
+          <t>15/04/2023 12:54</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:52</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>1.27</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>1.23</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>06/05/2023 12:53</t>
+          <t>06/05/2023 12:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.07</v>
+        <v>4.62</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.18</v>
+        <v>5.19</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>06/05/2023 12:56</t>
+          <t>06/05/2023 12:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.96</v>
+        <v>7.22</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.98</v>
+        <v>10.74</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>06/05/2023 12:53</t>
+          <t>06/05/2023 12:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kairat-almaty/fuRWN7RO/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-aksu/hYL8TBcm/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.27</v>
+        <v>2.07</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>06/05/2023 12:58</t>
+          <t>06/05/2023 12:53</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.62</v>
+        <v>3.07</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>5.19</v>
+        <v>3.18</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>06/05/2023 12:58</t>
+          <t>06/05/2023 12:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.22</v>
+        <v>2.96</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>10.74</v>
+        <v>2.98</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>06/05/2023 12:58</t>
+          <t>06/05/2023 12:53</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-aksu/hYL8TBcm/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kairat-almaty/fuRWN7RO/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FC Astana</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.28</v>
+        <v>2.07</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 04:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>03/06/2023 15:29</t>
+          <t>03/06/2023 15:17</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.63</v>
+        <v>3.12</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 04:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>6.47</v>
+        <v>3.28</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>03/06/2023 15:44</t>
+          <t>03/06/2023 15:17</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.81</v>
+        <v>2.99</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 04:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>10.24</v>
+        <v>3.56</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>03/06/2023 15:44</t>
+          <t>03/06/2023 15:11</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-aksu/CjE655A4/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kyzylzhar/8I7F3quH/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>FC Astana</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.07</v>
+        <v>1.28</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>02/06/2023 04:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 15:17</t>
+          <t>03/06/2023 15:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.12</v>
+        <v>4.63</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>02/06/2023 04:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.28</v>
+        <v>6.47</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 15:17</t>
+          <t>03/06/2023 15:44</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.99</v>
+        <v>6.81</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>02/06/2023 04:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.56</v>
+        <v>10.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 15:11</t>
+          <t>03/06/2023 15:44</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kyzylzhar/8I7F3quH/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-aksu/CjE655A4/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.02</v>
+        <v>3.88</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:54</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.07</v>
+        <v>3.33</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:50</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.06</v>
+        <v>1.69</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.93</v>
+        <v>1.76</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:54</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-shakhter-karagandy/YRkMazvq/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aktobe/IFBN34dE/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>3.88</v>
+        <v>2.02</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:54</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.33</v>
+        <v>3.07</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:50</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.69</v>
+        <v>3.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.76</v>
+        <v>2.93</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:54</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aktobe/IFBN34dE/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-shakhter-karagandy/YRkMazvq/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.37</v>
+        <v>2.28</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:23</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:56</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.28</v>
+        <v>3.37</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:23</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.67</v>
+        <v>1.75</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
         </is>
       </c>
     </row>
@@ -14346,6 +14346,466 @@
       <c r="V151" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aksu/SI0l0PjF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kairat Almaty</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Shakhter Karagandy</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-shakhter-karagandy/fims2oM2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kaisar Kyzylorda</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Kaspij Aktau</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-kaspij-aktau/Ysno15y9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Okzhetpes</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Atyrau</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:55</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:50</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:55</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/okzhetpes-atyrau/69ahaq6L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Tobol</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Zhetysu Taldykorgan</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-zhetysu-taldykorgan/hn9bw2q2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ordabasy</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>FC Astana</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-fc-astana/vq5fvrUe/</t>
         </is>
       </c>
     </row>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14809,6 +14809,98 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45196.45833333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyzylzhar</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Tobol</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>25/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>27/09/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>25/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>27/09/2023 10:57</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>25/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>27/09/2023 10:48</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-tobol/WMibc2Zs/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.86</v>
+        <v>1.81</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.52</v>
+        <v>2.26</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.15</v>
+        <v>3.72</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.04</v>
+        <v>2.88</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-kairat-almaty/QJot8Jm0/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-shakhter-karagandy/QFVvTKPP/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.26</v>
+        <v>3.52</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.17</v>
+        <v>3.01</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.72</v>
+        <v>2.15</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-shakhter-karagandy/QFVvTKPP/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-kairat-almaty/QJot8Jm0/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Ordabasy</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>4.02</v>
+        <v>7.31</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.59</v>
+        <v>5.92</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.14</v>
+        <v>4.18</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.41</v>
+        <v>1.4</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-aktobe/MNE6KmwN/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-ordabasy/jPDoPBOi/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Ordabasy</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>7.31</v>
+        <v>4.02</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>5.92</v>
+        <v>2.59</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.18</v>
+        <v>3.14</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.4</v>
+        <v>2.41</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-ordabasy/jPDoPBOi/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-aktobe/MNE6KmwN/</t>
         </is>
       </c>
     </row>
@@ -14898,6 +14898,190 @@
       <c r="V157" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-tobol/WMibc2Zs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45196.625</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>FC Astana</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Okzhetpes</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-okzhetpes/QwANKdX5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45196.66666666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Ordabasy</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>14/08/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-maqtaaral/4U8RJGnC/</t>
         </is>
       </c>
     </row>
